--- a/Aplicação equipamento - Integração arduino_RNA 1/dados_ard.xlsx
+++ b/Aplicação equipamento - Integração arduino_RNA 1/dados_ard.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,198 +549,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
